--- a/data/cva/raw/northeast/Hare_etal_2016_tables.xlsx
+++ b/data/cva/raw/northeast/Hare_etal_2016_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/cva/northeast/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/cva/raw/northeast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B2AF17-2E1D-7B47-BDEA-8870D314C463}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2014C260-CBBC-F64B-8E0A-CB7D92FFC8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25160" yWindow="5740" windowWidth="22300" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="262">
   <si>
     <r>
       <rPr>
@@ -2002,13 +2002,16 @@
   </si>
   <si>
     <t>Spiny Dogfish</t>
+  </si>
+  <si>
+    <t>Spot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2025,6 +2028,12 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2047,11 +2056,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2327,9 +2339,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2367,9 +2379,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2402,26 +2414,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2454,26 +2449,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2649,7 +2627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -3584,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FAF4FE-BA41-8D4F-A264-E38D3ECEB933}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4505,7 +4483,7 @@
       <c r="B54" t="s">
         <v>167</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D54" t="s">
@@ -4573,8 +4551,8 @@
       <c r="B58" t="s">
         <v>167</v>
       </c>
-      <c r="C58" t="s">
-        <v>218</v>
+      <c r="C58" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="D58" t="s">
         <v>221</v>

--- a/data/cva/raw/northeast/Hare_etal_2016_tables.xlsx
+++ b/data/cva/raw/northeast/Hare_etal_2016_tables.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/cva/raw/northeast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2014C260-CBBC-F64B-8E0A-CB7D92FFC8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20704A2-C017-2949-AC98-0C61DBDA314F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15660" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4" sheetId="2" r:id="rId2"/>
+    <sheet name="Figure 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Figure 4" sheetId="3" r:id="rId3"/>
+    <sheet name="Figure 5" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="273">
   <si>
     <r>
       <rPr>
@@ -2005,6 +2007,39 @@
   </si>
   <si>
     <t>Spot</t>
+  </si>
+  <si>
+    <t>dist_change</t>
+  </si>
+  <si>
+    <t>dir_effect</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>dist_change_text</t>
+  </si>
+  <si>
+    <t>black-bold</t>
+  </si>
+  <si>
+    <t>black-italics</t>
+  </si>
+  <si>
+    <t>white-bold</t>
+  </si>
+  <si>
+    <t>white-italics</t>
+  </si>
+  <si>
+    <t>dir_text</t>
   </si>
 </sst>
 </file>
@@ -3562,7 +3597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FAF4FE-BA41-8D4F-A264-E38D3ECEB933}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
@@ -4989,4 +5024,1869 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D11FA8-F7A7-ED4B-B648-B82170872F60}">
+  <dimension ref="A1:C83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEF4D98-2C16-1C48-B9D3-150D502858EE}">
+  <dimension ref="A1:C83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>